--- a/Finflux Automation Excels/Client/5044-CompondingPenalityCharge-MoraoriumOnPrinciple2-3rdInstallment.xlsx
+++ b/Finflux Automation Excels/Client/5044-CompondingPenalityCharge-MoraoriumOnPrinciple2-3rdInstallment.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="48">
   <si>
     <t>OverDueTillDate</t>
   </si>
@@ -174,7 +174,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,6 +225,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -259,7 +266,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -288,6 +295,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -615,7 +623,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -660,7 +668,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
-        <v>309.63</v>
+        <v>309.73</v>
       </c>
       <c r="B3" s="7">
         <v>0</v>
@@ -672,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="7">
-        <v>258.62</v>
+        <v>258.72000000000003</v>
       </c>
       <c r="F3" s="7">
         <v>219.34</v>
@@ -945,13 +953,14 @@
   <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
@@ -1235,13 +1244,13 @@
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="8">
-        <v>1007.61</v>
+        <v>1007.6</v>
       </c>
       <c r="G7" s="8">
-        <v>1985.74</v>
+        <v>1985.75</v>
       </c>
       <c r="H7" s="7">
-        <v>47.44</v>
+        <v>47.45</v>
       </c>
       <c r="I7" s="7">
         <v>0</v>
@@ -1282,13 +1291,13 @@
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="8">
-        <v>1006.28</v>
+        <v>1006.19</v>
       </c>
       <c r="G8" s="7">
-        <v>979.46</v>
+        <v>979.56</v>
       </c>
       <c r="H8" s="7">
-        <v>48.77</v>
+        <v>48.86</v>
       </c>
       <c r="I8" s="7">
         <v>0</v>
@@ -1329,7 +1338,7 @@
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7">
-        <v>979.46</v>
+        <v>979.56</v>
       </c>
       <c r="G9" s="7">
         <v>0</v>
@@ -1344,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="7">
-        <v>989.11</v>
+        <v>989.21</v>
       </c>
       <c r="L9" s="7">
         <v>0</v>
@@ -1360,7 +1369,7 @@
         <v>0</v>
       </c>
       <c r="Q9" s="7">
-        <v>989.11</v>
+        <v>989.21</v>
       </c>
     </row>
   </sheetData>
@@ -1370,10 +1379,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1415,7 +1424,7 @@
     </row>
     <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
-        <v>3847</v>
+        <v>351</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>30</v>
@@ -1427,19 +1436,19 @@
         <v>31</v>
       </c>
       <c r="E2" s="7">
-        <v>53.29</v>
+        <v>53.03</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="8">
-        <v>5253.65</v>
+        <v>5263.07</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
-        <v>3846</v>
+        <v>350</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>30</v>
@@ -1451,7 +1460,7 @@
         <v>32</v>
       </c>
       <c r="E3" s="7">
-        <v>0.36</v>
+        <v>0.09</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
@@ -1463,7 +1472,7 @@
     </row>
     <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
-        <v>3839</v>
+        <v>346</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>30</v>
@@ -1475,7 +1484,7 @@
         <v>32</v>
       </c>
       <c r="E4" s="7">
-        <v>52.93</v>
+        <v>0.01</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -1487,19 +1496,19 @@
     </row>
     <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
-        <v>3845</v>
+        <v>342</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C5" s="9">
-        <v>42063</v>
+        <v>42094</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>32</v>
       </c>
       <c r="E5" s="7">
-        <v>47.38</v>
+        <v>52.93</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -1511,7 +1520,7 @@
     </row>
     <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
-        <v>3838</v>
+        <v>349</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>30</v>
@@ -1523,31 +1532,31 @@
         <v>31</v>
       </c>
       <c r="E6" s="7">
-        <v>47.38</v>
+        <v>56.7</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
       <c r="J6" s="8">
-        <v>5200.3599999999997</v>
+        <v>5210.04</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
-        <v>3841</v>
+        <v>348</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C7" s="9">
-        <v>42035</v>
+        <v>42063</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>32</v>
       </c>
       <c r="E7" s="7">
-        <v>51.92</v>
+        <v>9.32</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -1559,67 +1568,67 @@
     </row>
     <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
-        <v>3836</v>
+        <v>340</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C8" s="9">
-        <v>42035</v>
+        <v>42063</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E8" s="7">
-        <v>51.92</v>
+        <v>47.38</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
-      <c r="J8" s="8">
-        <v>5152.9799999999996</v>
+      <c r="J8" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
-        <v>3834</v>
+        <v>345</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C9" s="9">
-        <v>42004</v>
+        <v>42035</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>31</v>
       </c>
       <c r="E9" s="7">
-        <v>51.75</v>
+        <v>52.28</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
       <c r="J9" s="8">
-        <v>5101.0600000000004</v>
+        <v>5153.34</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
-        <v>3833</v>
+        <v>344</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C10" s="9">
-        <v>42004</v>
+        <v>42035</v>
       </c>
       <c r="D10" s="7" t="s">
         <v>32</v>
       </c>
       <c r="E10" s="7">
-        <v>51.75</v>
+        <v>0.36</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -1631,115 +1640,115 @@
     </row>
     <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
-        <v>3832</v>
+        <v>338</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C11" s="9">
-        <v>41973</v>
+        <v>42035</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E11" s="7">
-        <v>49.31</v>
+        <v>51.92</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
-      <c r="J11" s="8">
-        <v>5049.3100000000004</v>
+      <c r="J11" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
-        <v>3831</v>
+        <v>337</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C12" s="9">
-        <v>41973</v>
+        <v>42004</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E12" s="7">
-        <v>49.31</v>
+        <v>51.75</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
-      <c r="J12" s="7">
-        <v>0</v>
+      <c r="J12" s="8">
+        <v>5101.0600000000004</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
-        <v>3830</v>
+        <v>336</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C13" s="9">
-        <v>41948</v>
+        <v>42004</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E13" s="7">
-        <v>51.01</v>
+        <v>51.75</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
-      <c r="J13" s="6">
-        <v>5000</v>
+      <c r="J13" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
-        <v>3786</v>
+        <v>335</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C14" s="9">
-        <v>41943</v>
+        <v>41973</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>31</v>
       </c>
       <c r="E14" s="7">
-        <v>44.38</v>
+        <v>49.31</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
       <c r="J14" s="8">
-        <v>5044.38</v>
+        <v>5049.3100000000004</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
-        <v>3785</v>
+        <v>334</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C15" s="9">
-        <v>41943</v>
+        <v>41973</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>32</v>
       </c>
       <c r="E15" s="7">
-        <v>44.38</v>
+        <v>49.31</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
@@ -1751,25 +1760,97 @@
     </row>
     <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
-        <v>3784</v>
+        <v>333</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>30</v>
       </c>
       <c r="C16" s="9">
+        <v>41948</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="7">
+        <v>51.01</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="6">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>308</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="9">
+        <v>41943</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="7">
+        <v>44.38</v>
+      </c>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="8">
+        <v>5044.38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
+        <v>307</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="9">
+        <v>41943</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="7">
+        <v>44.38</v>
+      </c>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
+        <v>306</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="9">
         <v>41917</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D19" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E19" s="6">
         <v>5000</v>
       </c>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6">
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6">
         <v>5000</v>
       </c>
     </row>
@@ -1783,12 +1864,14 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="4" width="9.140625" style="12"/>
+    <col min="5" max="6" width="9.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -1837,7 +1920,7 @@
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
     </row>
-    <row r="3" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>41</v>
       </c>
@@ -1868,7 +1951,7 @@
       </c>
       <c r="K3" s="11"/>
     </row>
-    <row r="4" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>41</v>
       </c>
@@ -1899,7 +1982,7 @@
       </c>
       <c r="K4" s="11"/>
     </row>
-    <row r="5" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>41</v>
       </c>
@@ -1932,9 +2015,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K3" r:id="rId1" location="/loanaccountcharge/40/waivecharge/200" display="D:\bharath\Code\conflux-web\app\index.html?baseApiUrl=https:\localhost:8443\fineract-provider\api\v1&amp;tenantIdentifier=default - /loanaccountcharge/40/waivecharge/200"/>
-    <hyperlink ref="K4" r:id="rId2" location="/loanaccountcharge/40/waivecharge/201" display="D:\bharath\Code\conflux-web\app\index.html?baseApiUrl=https:\localhost:8443\fineract-provider\api\v1&amp;tenantIdentifier=default - /loanaccountcharge/40/waivecharge/201"/>
-    <hyperlink ref="K5" r:id="rId3" location="/loanaccountcharge/40/waivecharge/202" display="D:\bharath\Code\conflux-web\app\index.html?baseApiUrl=https:\localhost:8443\fineract-provider\api\v1&amp;tenantIdentifier=default - /loanaccountcharge/40/waivecharge/202"/>
+    <hyperlink ref="K3" r:id="rId1" location="/loanaccountcharge/10/waivecharge/47" display="D:\bharath\Code\conflux-web\app\index.html?baseApiUrl=https:\localhost:8443\fineract-provider\api\v1&amp;tenantIdentifier=default - /loanaccountcharge/10/waivecharge/47"/>
+    <hyperlink ref="K4" r:id="rId2" location="/loanaccountcharge/10/waivecharge/48" display="D:\bharath\Code\conflux-web\app\index.html?baseApiUrl=https:\localhost:8443\fineract-provider\api\v1&amp;tenantIdentifier=default - /loanaccountcharge/10/waivecharge/48"/>
+    <hyperlink ref="K5" r:id="rId3" location="/loanaccountcharge/10/waivecharge/49" display="D:\bharath\Code\conflux-web\app\index.html?baseApiUrl=https:\localhost:8443\fineract-provider\api\v1&amp;tenantIdentifier=default - /loanaccountcharge/10/waivecharge/49"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
